--- a/story/主线剧情/main/level_main_08-12_end.xlsx
+++ b/story/主线剧情/main/level_main_08-12_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">[name="罗德岛干员"]  牧群的强度非常高。
 </t>
   </si>
@@ -499,6 +505,486 @@
   </si>
   <si>
     <t xml:space="preserve">[name="ケルシー"]  感染者よ、さらなる悪夢を広めることなど、私は決して許さない。
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  This herd is incredibly tough.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Not only do these mutated Sarkaz Infected have much better healing capabilities than normal possessed Infected, they are much more intelligent, too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  But that still doesn't give us a way to actually talk to them. They all seem so... strange. Like they're all in some place else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  Not only that, this type of mutation is an accident waiting to happen. The crystals form way too fast. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The concentration of crystal dust in the air is the highest right here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  That probably means that whoever is controlling the Herd here has most likely taken over the sarcophagus of the Chernobog core city already.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Things are always happening in places we don't have our eyes on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I really can't even begin to imagine what we'll be facing from here on out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  ...I don't mind getting an earful for this, Doctor, but I have to say this. This is way too difficult.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  What we are doing might just be suicide. And, most importantly, I really don't think we have what it takes to save this city and Lungmen. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Let's not demoralize ourselves.;......;There are still things we need to do.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Chard, if memory serves, you have a family, don't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Chard"]  I'm surprised you remember, Doctor. You got one detail wrong, though. My wife and my daughter don't care about me anymore, so I don't really have one. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Chard, have you ever thought about seeing them, and start living with them once again?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Chard"]  I dreamed about it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The first step to turning your dreams into reality is to give yourself the chance to dream.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Stopping Chernobog isn't going to make life any harder for the Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Give your daughter a chance, Chard. Give her the chance to see her father again. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Chard"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Chard"]  I'll do as you say, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You're just taking him for a ride.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  What I said may have been a lie. I don't think the world is going to become a better place overnight, and there's basically no way the Infected will get to go back to their previous lives.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But what I said could also be the truth.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Suppose we leave this place right now. He will never have the chance to see his daughter again, regardless of whether his family or he himself die of other causes in the events that will transpire.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And suppose we aren't able to solve the problem we are facing right now. Most broader academic research will forever remain theories and nothing more.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The successes of those who put in the work is what gives us the right to continue.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There are countless people trying to revolutionize the system for the Infected, but all it takes is one failure, and not only will they forever lose the right to try that, we will never again have that opportunity again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you need a more suitable metaphor, consider the concept, "life".
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Each time a major operation ends in success, we live to see another day. On the other hand, failure means death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There is no such thing as coming back from the dead in science.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We only have one chance to save our lives. We will come to face many disasters, and it will be the end of us each time an accident happens. That's both ourselves individually or Rhodes Island as a whole. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Disasters like Chernobog are bound to happen again and again. If we fail to solve a problem like that even once, we will die. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  On one hand, we have to stop the disease before it catches up and overwhelms all of us. On the other hand, we need to save ourselves from within this storm.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I'm not singing Rhodes Island's praises. Not too much, at least. It's just, right here, right now, this is a problem that only we can handle. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Most of us only get to live once. Once our lives are lost, it's gone forever. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You mean there are people who gets to live several lives?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Uh, that's not really what I'm trying to say. What I mean is that there are people who haven't ever treasured their own lives. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There are a lot of people who have never been around anything normal ever since they were born. Twisted places will only bear twisted fruits.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The reason there is so much malice in Chernobog is precisely because there has always been malice not kept in check there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Malice, or more precisely, all those chains of malice aren't going to disappear on their own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Each destruction, each killing might only have been caused by a modicum of desire. In a lawless land, barbarism is simply left to breed rampantly on its own, and that is how it becomes the law of the land.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And this kind of law is much stronger than the law you'd find in the cities. It's simply indestructible.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  That's violence. The violence that flows in our blood veins comes from the parts of us left untamed by civilization. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Listen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Did you hear that...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Singing...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  How peculiar. Originium Arts don't usually interfere with my senses at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  All operators, put on your protective equipment!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}, something terrible might be happening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Based on the chaos we've seen along the way, we probably would've reached this conclusion all the same, but I'm afraid what we are about to face might be far worse than what we could ever have imagined.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Has it ever gone any other way?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I wouldn't say it's always a foregone conclusion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Perhaps someone has placed a curse on either us or this city. That being said, curses can be broken. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you plant the seeds of evil, the flowers of evil will blossom, bearing fruits of evil. If we water the earth with goodwill, then even if this parcel of land doesn't get any better... at least it wouldn't meet such a dreadful fate and be buried by a tragedy like this. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's a shame...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You look in the same direction as Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's a shame that, as far as I know, evil is a vicious cycle that will only breed even worse malice, and fate is rarely kind to those who are kind at heart.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I can't allow you to bring about yet another nightmare, Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  무리들의 힘이 상당히 강해졌군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  살카즈 변이 감염자는 일반 무리의 숙주보다 더 강한 회복 능력을 지니고 있고, 지능도 더 높습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  하지만 우리에게는 저들과 교류할 수 있는 방법이 없습니다. 저 녀석들은 마치…… 너무 이상해요. 다른 곳에 살고 있는 느낌입니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  게다가, 이런 변이는 조만간 문제가 생길 수 있습니다. 결정 증가율이 너무 높아요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  공기 중 결정 분진 밀도도 여기에서는 최대로 나오는군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  가축 떼들의 조종자가 체르노보그 코어의 석관을 이미 점령했을지도 모른다는 이야기지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  모든 일들은 이미 계속 벌어지고 있었던 거야. 우리가 볼 수 없는 곳에서.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  앞으로 또 무엇과 마주하게 될지…… 이젠 감도 안 잡히는군요.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  켈시 선생님…… 욕하셔도 상관없습니다만, 그래도 한 마디 해야겠습니다. 이건 너무 무모합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="로도스 아일랜드 오퍼레이터"]  이건 자살행위일지도 모릅니다. 무엇보다도 이 도시와 용문을 구할 능력이 우리에겐 없다고 생각합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="우리 스스로 사기를 떨어뜨리면 안 되지 않나?;……;하지만 우리에겐 해야 할 일이 있어.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  차드, 가정이 있던 걸로 기억하는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="차드"]  기억하고 계셨군요. 그렇지만 틀렸습니다, 와이프랑 딸이 제가 싫다더군요. 그래서 지금은 가정이 없습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  차드, 아내와 딸을 다시 만나서 함께 살고 싶다는 생각 해본 적 없나?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="차드"]  꿈속에서라면 있습니다만.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  꿈을 현실로 이루는 첫걸음은, 우리에게 꿈꿀 기회를 주는 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  우리가 체르노보그를 멈추면, 감염자들이 그로 인해 더 힘들어지지는 않겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  딸에게 기회를 줘, 차드. 아버지를 다시 만날 수 있는 기회를 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="차드"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="차드"]  선생님 말씀대로 하겠습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="저 사람을 기만하는 것 아닌가.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  거짓말이 될지도 모르겠지만, 이 세상이 쉽게 좋아질 거라고 생각하지 않아. 감염자들이 원래의 삶으로 돌아갈 확률은 극히 희박해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  하지만 진실이 될 수도 있어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  우리가 지금 떠난다면 차드는 다시는 딸을 만날 수 없겠지. 그와 그의 가족이 앞으로 닥칠 불의의 사고로 목숨을 잃든 아니든 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  우리가 직면한 사건조차 해결하지 못한다면, 아무리 광범위한 학술 연구가 진행된다 해도 이론에 그치고 말겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  실천하는 사람들이 실천에 성공한 덕분에, 우리는 계속 실천할 수 있는 자격을 얻게 됐지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  감염자 제도를 개혁하려는 자들이 아무리 많아진다 한들, 단 한 번이라도 실패하게 된다면 그 자격은 영원히 박탈당해 되찾을 수도 없게 될 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  적절한 비유 대상이 필요하다면, '생명'이라는 개념을 사용하는 게 좋겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  ……우린 중요한 임무에 성공할 때마다 생명이 늘어났어. 그런데 비해, 실패는 곧 죽음을 의미하지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  과학에는 기사회생이라는 개념이 존재하지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  자신의 목숨을 구할 기회는 단 한 번뿐이야. 우린 많은 위기에 직면하게 될 거야, 뜻밖의 상황에서 자신이 다치게 되겠지. 우리뿐만 아니라 로도스 아일랜드에게도 마찬가지야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  앞으로도 체르노보그 사태와 같은 재앙과 여러 번 마주하게 될 거야. 이런 문제를 해결할 수 없게 될 때, 우리는 죽게 되겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  병이 퍼지기 전에 막으면서, 수많은 위기 속에서 자신을 구해야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  로도스 아일랜드의 역할을 강조할 생각 따윈 없어. 하지만 지금, 여기에서 이 문제를 해결할 수 있는 사람은 우리뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  대부분의 사람에게 목숨은 단 하나뿐이지. 한 번 잃으면 영원히 잃게 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="목숨이 여러 개인 사람도 있나?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그런 뜻이 아니라, 처음부터 자신의 생명을 가져보지 못한 사람도 있다는 말이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  태어날 때부터 정상적인 것을 갖지 못한 사람이 수두룩해. 왜곡된 땅에는 왜곡된 수확만 존재할 뿐이니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  악의적인 생각들이 체르노보그에 모여든 건, 누구도 막지 못한 어떤 악의 때문이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  악의적인 생각의 사슬은 저절로 사라지지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  파괴와 죽음, 그 원인은 작은 갈망에서 비롯된 걸지도 몰라. 법률이 닿지 않는 토양에서 마구 자라며 저만의 법칙을 만들어내는 거지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그 법칙이라는 건 국가의 법보다도 강해. 왜냐면 그건 파괴될 수 없거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그게 바로 폭력이야. 우리의 혈관에 흐르는 폭력은, 길들여지지 않은 우리의 본능에서 비롯되지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  잠깐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  방금 들었나? 저 소리는……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  ……노랫소리……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  이상하군. 오리지늄 아츠가 만들어내는 착각이 내게는 영향을 줄 수 없을 텐데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  오퍼레이터, 보호 설비를 더 설치해라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  {@nickname} 박사, 뭔가 안 좋은 일이 벌어지고 있는 것 같다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  우리는 혼란의 길을 걸으며 똑같은 결론을 내렸지만, 어쩌면 우리가 예상한 것보다 더 심각한 상황을 마주해야 할지 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="항상 그래왔지.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  그게 당연한 건 아니지만.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  어쩌면 우리와 이 도시는 모두 저주받은 걸지도 몰라. 하지만 단순히 저주일 뿐이라면, 풀 수도 있겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  악의 씨앗을 심으면 악의 꽃이 피고 악의 열매가 맺힐 거야. 우리가 그 땅에 선의라는 물을 뿌리면 나아지지는 않아도…… 이렇게 비참하게 추락하는 상황은 피했을지도 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  안타깝게도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">당신은 켈시의 시선이 향하는 곳을 바라보았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  안타깝게도, 악은 더 큰 악을 잉태할 뿐이지. 착한 사람들은 대부분 좋지 않은 결말을 맞이하고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"]  또 다른 악몽과 감염자가 퍼지도록 난 가만히 놔둘 수 없어.
 </t>
   </si>
 </sst>
@@ -857,498 +1343,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>157</v>
+      </c>
+      <c r="D35" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>160</v>
+      </c>
+      <c r="D38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+      <c r="C42" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" t="s">
+        <v>166</v>
+      </c>
+      <c r="D44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D49" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" t="s">
+        <v>172</v>
+      </c>
+      <c r="D50" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>182</v>
+      </c>
+      <c r="D60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>123</v>
+      </c>
+      <c r="C61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
